--- a/ExcelBinderTestCore/Documents/CarsReport.xlsx
+++ b/ExcelBinderTestCore/Documents/CarsReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HP</t>
   </si>
@@ -46,18 +46,52 @@
   </si>
   <si>
     <t>Some footer info</t>
+  </si>
+  <si>
+    <t>6-cols</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>____________ M.M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -69,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,12 +111,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -363,50 +425,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelBinderTestCore/Documents/CarsReport.xlsx
+++ b/ExcelBinderTestCore/Documents/CarsReport.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>HP</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Some header info</t>
   </si>
   <si>
-    <t>More header info</t>
-  </si>
-  <si>
     <t>Some footer info</t>
   </si>
   <si>
@@ -54,7 +51,13 @@
     <t>Member</t>
   </si>
   <si>
-    <t>____________ M.M</t>
+    <t>CarCounter: [[[CarCount]]]</t>
+  </si>
+  <si>
+    <t>________</t>
+  </si>
+  <si>
+    <t>[[[Name]]]</t>
   </si>
 </sst>
 </file>
@@ -139,12 +142,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -428,7 +434,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,10 +446,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -476,15 +482,18 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
